--- a/MethodDemos/output/statistics/pdfx-AUTHOR_EMAILS.xlsx
+++ b/MethodDemos/output/statistics/pdfx-AUTHOR_EMAILS.xlsx
@@ -479,7 +479,7 @@
   <si>
     <t>Maia Zaharieva --- maia.zaharieva@univie.ac.at
 Bogdan Boteanu --- bboteanu@alpha.imag.pub.ro
-Alexandru Lucian Gînsc --- alexandru.ginsca@cea.fr
+Alexandru Lucian Gînscă --- alexandru.ginsca@cea.fr
 Henning Müller --- henning.mueller@hevs.ch
 Bogdan Ionescu --- bionescu@alpha.imag.pub.ro
 Mihai Lupu --- lupu@ifs.tuwien.ac.at</t>

--- a/MethodDemos/output/statistics/pdfx-AUTHOR_EMAILS.xlsx
+++ b/MethodDemos/output/statistics/pdfx-AUTHOR_EMAILS.xlsx
@@ -193,7 +193,9 @@
     <t>TUW-180162</t>
   </si>
   <si>
-    <t>Engin Kirda --- kirda@eurecom.fr</t>
+    <t>Christopher Kruegel --- chris@cs.ucsb.edu
+Engin Kirda --- kirda@eurecom.fr
+Manuel Egele --- pizzaman@iseclab.org</t>
   </si>
   <si>
     <t>TUW-181199</t>
